--- a/medicine/Médecine vétérinaire/Organisation_mondiale_de_la_santé_animale/Organisation_mondiale_de_la_santé_animale.xlsx
+++ b/medicine/Médecine vétérinaire/Organisation_mondiale_de_la_santé_animale/Organisation_mondiale_de_la_santé_animale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Organisation_mondiale_de_la_sant%C3%A9_animale</t>
+          <t>Organisation_mondiale_de_la_santé_animale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Organisation mondiale de la santé animale (OMSA) est l'organisation intergouvernementale chargée d'améliorer la santé animale et le bien-être animal dans le monde. « Par la collecte, l’analyse et la diffusion d’informations scientifiques vétérinaires », l'OIE, devenue OMSA encourage « la solidarité internationale pour contrôler les risques sanitaires au niveau mondial », dans une approche « Une seule santé » (One Health) conjointement promue par l'OIE et l'OMS, c'est-à-dire, en « tenant compte de l’interdépendance existant entre la santé des animaux, des êtres humains et l’environnement ». L'OIE a été créée par un Accord international du 25 janvier 1924 sous le nom d'Office international des épizooties (OIE), dont elle a gardé le sigle jusqu'en 2022, bien qu'ayant adopté en 2003 le nom d' « Organisation mondiale de la santé animale ».
 L'OMSA est reconnue comme référence par l'Organisation mondiale du commerce (OMC) et compte 182 pays et territoires membres en 2018. Elle est en relation permanente avec plus de 62 autres organisations internationales et régionales et dispose de représentations régionales et sous-régionales sur tous les continents.
-Son siège est à Paris et ses langues de travail sont l'anglais, l'espagnol et le français. Elle est dirigée depuis mai 2024 par Emmanuelle Soubeyran[1].
+Son siège est à Paris et ses langues de travail sont l'anglais, l'espagnol et le français. Elle est dirigée depuis mai 2024 par Emmanuelle Soubeyran.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Organisation_mondiale_de_la_sant%C3%A9_animale</t>
+          <t>Organisation_mondiale_de_la_santé_animale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les missions prioritaires de l'OMSA sont les suivantes[2]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les missions prioritaires de l'OMSA sont les suivantes:
 la transparence de la situation sanitaire mondiale ;
 l'excellence scientifique ;
 la solidarité internationale et le rôle des services vétérinaires ;
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Organisation_mondiale_de_la_sant%C3%A9_animale</t>
+          <t>Organisation_mondiale_de_la_santé_animale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,11 +564,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet organisme fut créé par l'Arrangement international le 25 janvier 1924 sous le nom d'Office international des épizooties à la suite de l'épizootie de peste bovine survenue en Belgique en 1920, du fait de l'importation de zébus en provenance d'Asie du Sud et destinés au Brésil[2]. Créé donc indépendamment de la Société des Nations, l'OIE a toutefois dès l'origine instauré une coopération étroite et suivie avec cette dernière.
-L'OIE faillit cependant disparaître après la Seconde Guerre mondiale lorsque l'ONU créa la FAO en 1946 et l'Organisation mondiale de la santé (OMS) en 1948, dont les compétences empiétaient largement sur celles de l'OIE. Des accords officiels furent signés par la suite avec la FAO en 1952 et avec l'OMS en 1960. Rebaptisé Organisation mondiale de la santé animale, l'organisme conserve toutefois son sigle OIE jusqu'au 28 mai 2022[3].
-L'OMSA compte actuellement 182 pays et territoires membres[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet organisme fut créé par l'Arrangement international le 25 janvier 1924 sous le nom d'Office international des épizooties à la suite de l'épizootie de peste bovine survenue en Belgique en 1920, du fait de l'importation de zébus en provenance d'Asie du Sud et destinés au Brésil. Créé donc indépendamment de la Société des Nations, l'OIE a toutefois dès l'origine instauré une coopération étroite et suivie avec cette dernière.
+L'OIE faillit cependant disparaître après la Seconde Guerre mondiale lorsque l'ONU créa la FAO en 1946 et l'Organisation mondiale de la santé (OMS) en 1948, dont les compétences empiétaient largement sur celles de l'OIE. Des accords officiels furent signés par la suite avec la FAO en 1952 et avec l'OMS en 1960. Rebaptisé Organisation mondiale de la santé animale, l'organisme conserve toutefois son sigle OIE jusqu'au 28 mai 2022.
+L'OMSA compte actuellement 182 pays et territoires membres.
 </t>
         </is>
       </c>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Organisation_mondiale_de_la_sant%C3%A9_animale</t>
+          <t>Organisation_mondiale_de_la_santé_animale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,10 +599,12 @@
           <t>Interface de la base de données mondiale d'informations sanitaires (WAHID)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'interface WAHID (World Animal Health Information System) permet d'accéder à toutes les données contenues dans le nouveau système mondial d'information sanitaire de l'OMSA. Il remplace et étend considérablement les possibilités d'analyse et de requêtes offertes par l'ancienne interface web Handistatus II.
-Un large éventail d'informations est disponible et consultable après extraction de la base de données. Il s'agit[2] :
+Un large éventail d'informations est disponible et consultable après extraction de la base de données. Il s'agit :
 des notifications immédiates et des rapports de suivi soumis par les pays membres notifiant des événements épidémiologiques exceptionnels ayant cours dans ces pays ;
 des rapports semestriels faisant état de la situation sanitaire des maladies de la liste de l'OMSA dans chaque pays ;
 des rapports annuels offrant des informations sanitaires et des informations sur le personnel vétérinaire, sur les laboratoires et les vaccins, etc.</t>
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Organisation_mondiale_de_la_sant%C3%A9_animale</t>
+          <t>Organisation_mondiale_de_la_santé_animale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Afrique
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
  Afrique du Sud
  Algérie
  Angola
@@ -674,7 +698,43 @@
  Tunisie
  Zambie
  Zimbabwe
-Amérique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Organisation_mondiale_de_la_santé_animale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organisation_mondiale_de_la_sant%C3%A9_animale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>États membres par continents</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Amérique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
  Argentine
  Bahamas
  Barbade
@@ -704,7 +764,43 @@
  Trinité-et-Tobago
  Uruguay
  Venezuela
-Asie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Organisation_mondiale_de_la_santé_animale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organisation_mondiale_de_la_sant%C3%A9_animale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>États membres par continents</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
  Afghanistan
  Arabie saoudite
  Arménie
@@ -752,7 +848,43 @@
  Turquie
  Viêt Nam
  Yémen
-Europe
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Organisation_mondiale_de_la_santé_animale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organisation_mondiale_de_la_sant%C3%A9_animale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>États membres par continents</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
  Albanie
  Allemagne
  Andorre
@@ -796,7 +928,43 @@
  Suisse
  République tchèque
  Ukraine
-Océanie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Organisation_mondiale_de_la_santé_animale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Organisation_mondiale_de_la_sant%C3%A9_animale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>États membres par continents</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Océanie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
  Australie
  Fidji
  États fédérés de Micronésie
